--- a/nft/generator/template/input/individual.xlsx
+++ b/nft/generator/template/input/individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhiqiang/workspace/github/game-of-nfts/gon-toolbox/nft/generator/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhiqiang/workspace/github/game-of-nfts/gon-toolbox/nft/generator/template/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF14D22-639D-0F40-BB68-B68CB02B5FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832292C6-16F0-C844-A489-1C89290E7A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="27500" windowHeight="17440" xr2:uid="{74FB92D0-F7C6-B54E-B5B2-DBF7C631C63D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Symbol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
   </si>
   <si>
     <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -482,23 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D8710-3B58-454A-9C82-ADE32A0D4311}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,9 +520,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -541,35 +530,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58DA2D-A5F0-DD4D-986D-7F5EBBDB21E1}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -595,16 +578,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
